--- a/WPDigitalizer/MQ2/MQ2_Analisis.xlsx
+++ b/WPDigitalizer/MQ2/MQ2_Analisis.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\OneDrive - ufps.edu.co\Escritorio\MQSensorsLib\WPDigitalizer\MQ3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onmotica Developer\Desktop\MQSensorsLib\WPDigitalizer\MQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620C7D6C-042E-4CE4-BEC0-E20D43C37410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9224BF30-A569-4673-950E-3A04F1068C3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Alcohol" sheetId="1" r:id="rId1"/>
-    <sheet name="Benzine" sheetId="2" r:id="rId2"/>
-    <sheet name="CH4" sheetId="3" r:id="rId3"/>
-    <sheet name="CO" sheetId="4" r:id="rId4"/>
-    <sheet name="HEXANE" sheetId="5" r:id="rId5"/>
-    <sheet name="LPG" sheetId="6" r:id="rId6"/>
+    <sheet name="CH4" sheetId="3" r:id="rId2"/>
+    <sheet name="CO" sheetId="4" r:id="rId3"/>
+    <sheet name="H2" sheetId="5" r:id="rId4"/>
+    <sheet name="LPG" sheetId="6" r:id="rId5"/>
+    <sheet name="Propane" sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
   <si>
     <t>RS/R0</t>
   </si>
@@ -43,16 +44,10 @@
     <t>Alcohol</t>
   </si>
   <si>
-    <t>Benzine</t>
-  </si>
-  <si>
     <t>CH4</t>
   </si>
   <si>
     <t>CO</t>
-  </si>
-  <si>
-    <t>Hexane</t>
   </si>
   <si>
     <t>LPG</t>
@@ -64,9 +59,6 @@
     <t>mg/L</t>
   </si>
   <si>
-    <t>Mg/L Calculado</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -74,6 +66,21 @@
   </si>
   <si>
     <t>Error promedio</t>
+  </si>
+  <si>
+    <t>PPM</t>
+  </si>
+  <si>
+    <t>PPM Calculado</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Propane</t>
   </si>
 </sst>
 </file>
@@ -169,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -179,12 +186,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -198,16 +199,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,34 +396,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.103536704986982</c:v>
+                  <c:v>202.97159045689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21669508284625499</c:v>
+                  <c:v>493.628432971103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.412187046707997</c:v>
+                  <c:v>789.30182645435798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.03536704986982</c:v>
+                  <c:v>1013.55647682452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6267497726757201</c:v>
+                  <c:v>1483.41097240506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5338073109426098</c:v>
+                  <c:v>2002.5681360431199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0862106814454302</c:v>
+                  <c:v>3045.8553406742799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1472269232604502</c:v>
+                  <c:v>4983.9913111605501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0474887337508907</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0872685928713</c:v>
+                  <c:v>10116.0864324958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,34 +432,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3006052433419799</c:v>
+                  <c:v>2.8708212518418099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.52830673265877</c:v>
+                  <c:v>2.1204860819913498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98496557649837702</c:v>
+                  <c:v>1.7229493058249301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53735730587751895</c:v>
+                  <c:v>1.6285583701924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39690284370655698</c:v>
+                  <c:v>1.42410319455136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.293160371356816</c:v>
+                  <c:v>1.26164078362926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.206913808111479</c:v>
+                  <c:v>1.0937280830093301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16237767391887201</c:v>
+                  <c:v>0.888662882416279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.129372540128079</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11635618505358999</c:v>
+                  <c:v>0.65934744485899699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,818 +692,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-419"/>
-              <a:t>Hexane</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-419"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.4136496062992126"/>
-                  <c:y val="-0.49059310294546515"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-419"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>HEXANE!$A$21:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>52.132105222319197</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38.505814631771599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.147346385956801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.0060524334198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.551169959105399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.9515019344802</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.152639075520501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>HEXANE!$B$21:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.103536704986982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21482037565589701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40508594014569699</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.01752987664727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1472269232604502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9778670109350198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89D7-4028-9007-C0824FC35502}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="652964904"/>
-        <c:axId val="652966544"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="652964904"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="652966544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="652966544"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="652964904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-419"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-419"/>
-              <a:t>LPG</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-419"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.13721259842519684"/>
-                  <c:y val="0.15789297171186936"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-419"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>LPG!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.10444025524245699</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21482037565589701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40862106814454302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.03536704986982</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1472269232604502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9778670109350198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.9134863991497504</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>LPG!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>51.348329074375599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.813323987194003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.241864000126803</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.7635144163132</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.753186734235101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.7454162087133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.1347270620369</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3BC-4BD2-90C1-48D975BFE431}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="366270552"/>
-        <c:axId val="690053448"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="366270552"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="690053448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="690053448"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="366270552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-419"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-419"/>
               <a:t>LPG</a:t>
             </a:r>
           </a:p>
@@ -1619,25 +814,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>51.348329074375599</c:v>
+                  <c:v>1.5893603059496999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.813323987194003</c:v>
+                  <c:v>1.08149289868563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.241864000126803</c:v>
+                  <c:v>0.86369722126322801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.7635144163132</c:v>
+                  <c:v>0.77854124430590899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.753186734235101</c:v>
+                  <c:v>0.66915510771054998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.7454162087133</c:v>
+                  <c:v>0.57766302570564698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.1347270620369</c:v>
+                  <c:v>0.467369877812643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,25 +844,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.10444025524245699</c:v>
+                  <c:v>197.57834731787</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21482037565589701</c:v>
+                  <c:v>497.44131713774601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40862106814454302</c:v>
+                  <c:v>798.46454977390897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.03536704986982</c:v>
+                  <c:v>1005.78757362058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1472269232604502</c:v>
+                  <c:v>1455.14833987319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9778670109350198</c:v>
+                  <c:v>1964.41428090663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9134863991497504</c:v>
+                  <c:v>2964.9226427456501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,6 +1063,824 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Propane</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Propane!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>199.87196386572501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505.15566738639001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>804.63204871868004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1477.7148689707501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964.41428090663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2976.3514416313101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5003.2029538260003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10038.546701761699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Propane!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7177387821105901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.11464945528187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91353622990473204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.695649154812918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61896372658948495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49862651200770702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39819373740858899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27692374489037502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B25-4979-86D0-E6F0466C727A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474654176"/>
+        <c:axId val="474647944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474654176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474647944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="474647944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474654176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Propane</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28879286964129486"/>
+                  <c:y val="-0.47406058617672792"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Propane!$A$21:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7177387821105901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.11464945528187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91353622990473204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.695649154812918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61896372658948495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49862651200770702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39819373740858899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27692374489037502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Propane!$B$21:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>199.87196386572501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505.15566738639001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>804.63204871868004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1477.7148689707501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964.41428090663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2976.3514416313101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5003.2029538260003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10038.546701761699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9196-4126-AB8B-CD713EEDF0E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510949448"/>
+        <c:axId val="510951744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="510949448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510951744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="510951744"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510949448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1984,8 +1997,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10912926509186352"/>
-                  <c:y val="-0.53101851851851856"/>
+                  <c:x val="0.20979965004374454"/>
+                  <c:y val="-0.2592479585885098"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2025,34 +2038,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3006052433419799</c:v>
+                  <c:v>2.8708212518418099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.52830673265877</c:v>
+                  <c:v>2.1204860819913498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98496557649837702</c:v>
+                  <c:v>1.7229493058249301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53735730587751895</c:v>
+                  <c:v>1.6285583701924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39690284370655698</c:v>
+                  <c:v>1.42410319455136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.293160371356816</c:v>
+                  <c:v>1.26164078362926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.206913808111479</c:v>
+                  <c:v>1.0937280830093301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16237767391887201</c:v>
+                  <c:v>0.888662882416279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.129372540128079</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11635618505358999</c:v>
+                  <c:v>0.65934744485899699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,34 +2074,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.103536704986982</c:v>
+                  <c:v>202.97159045689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21669508284625499</c:v>
+                  <c:v>493.628432971103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.412187046707997</c:v>
+                  <c:v>789.30182645435798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.03536704986982</c:v>
+                  <c:v>1013.55647682452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6267497726757201</c:v>
+                  <c:v>1483.41097240506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5338073109426098</c:v>
+                  <c:v>2002.5681360431199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0862106814454302</c:v>
+                  <c:v>3045.8553406742799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1472269232604502</c:v>
+                  <c:v>4983.9913111605501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0474887337508907</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0872685928713</c:v>
+                  <c:v>10116.0864324958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,864 +2334,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-419"/>
-              <a:t>Benzine</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-419"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.0263779527559055E-2"/>
-          <c:y val="0.13004629629629633"/>
-          <c:w val="0.91040288713910766"/>
-          <c:h val="0.77736111111111106"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.15199037620297462"/>
-                  <c:y val="-0.34855132691746865"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-419"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Benzine!$A$3:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.102640971670123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21482037565589701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40862106814454302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.02640971670123</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6409461890372301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5118864315095801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0508594014569699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1472269232604502</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.9778670109350198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9134863991497504</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Benzine!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.1535653960688297</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2105463740271101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5970103724929099</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7782794100389201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.48269776045635</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2551169959105399</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.03076080197786</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94120496726806802</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83378222347178998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77296155661007604</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5E4-4D02-BC47-FAA7D22230F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="366269568"/>
-        <c:axId val="689009216"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="366269568"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="689009216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="689009216"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="366269568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-419"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-419"/>
-              <a:t>Benzine</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-419"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.2098206474190727E-2"/>
-                  <c:y val="-0.61124999999999996"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-419"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Benzine!$A$19:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.1535653960688297</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2105463740271101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5970103724929099</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7782794100389201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.48269776045635</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2551169959105399</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.03076080197786</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94120496726806802</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83378222347178998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77296155661007604</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Benzine!$B$19:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.102640971670123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21482037565589701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40862106814454302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.02640971670123</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6409461890372301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5118864315095801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0508594014569699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1472269232604502</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.9778670109350198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9134863991497504</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B336-4328-A199-FC6A59787E30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="647853344"/>
-        <c:axId val="647854000"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="647853344"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="647854000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="647854000"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="647853344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-419"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-419"/>
               <a:t>CH4</a:t>
             </a:r>
           </a:p>
@@ -3307,34 +2456,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.9134863991497504</c:v>
+                  <c:v>200.64240436389201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9088476107129697</c:v>
+                  <c:v>493.628432971103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1472269232604502</c:v>
+                  <c:v>795.39855070234205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0862106814454302</c:v>
+                  <c:v>1021.38538858153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5118864315095801</c:v>
+                  <c:v>1466.38819498409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.65526649552671</c:v>
+                  <c:v>2010.28737571288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.01752987664727</c:v>
+                  <c:v>3022.5088810975799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.412187046707997</c:v>
+                  <c:v>4945.7890531206504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21669508284625499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.101752987664727</c:v>
+                  <c:v>10155.0806091667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,34 +2492,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39.093563826527401</c:v>
+                  <c:v>3.0628594206904798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.690284370655696</c:v>
+                  <c:v>2.2623075243417898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.296113202004001</c:v>
+                  <c:v>1.9027463399615101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.5356539606883</c:v>
+                  <c:v>1.7601093645164001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.169650342858297</c:v>
+                  <c:v>1.5128224400169901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.169650342858297</c:v>
+                  <c:v>1.3635579819828101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.130296168378003</c:v>
+                  <c:v>1.16186132267541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.4877794700378</c:v>
+                  <c:v>0.93590796595576597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.066996389388301</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49.066996389388301</c:v>
+                  <c:v>0.70344310200288696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3574,7 +2717,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3690,8 +2833,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43175546806649168"/>
-                  <c:y val="-0.58347222222222217"/>
+                  <c:x val="-0.42524146981627298"/>
+                  <c:y val="-0.744537037037037"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3731,34 +2874,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39.093563826527401</c:v>
+                  <c:v>3.0628594206904798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.690284370655696</c:v>
+                  <c:v>2.2623075243417898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.296113202004001</c:v>
+                  <c:v>1.9027463399615101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.5356539606883</c:v>
+                  <c:v>1.7601093645164001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.169650342858297</c:v>
+                  <c:v>1.5128224400169901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.169650342858297</c:v>
+                  <c:v>1.3635579819828101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.130296168378003</c:v>
+                  <c:v>1.16186132267541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.4877794700378</c:v>
+                  <c:v>0.93590796595576597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.066996389388301</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49.066996389388301</c:v>
+                  <c:v>0.70344310200288696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3770,34 +2910,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.9134863991497504</c:v>
+                  <c:v>200.64240436389201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9088476107129697</c:v>
+                  <c:v>493.628432971103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1472269232604502</c:v>
+                  <c:v>795.39855070234205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0862106814454302</c:v>
+                  <c:v>1021.38538858153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5118864315095801</c:v>
+                  <c:v>1466.38819498409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.65526649552671</c:v>
+                  <c:v>2010.28737571288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.01752987664727</c:v>
+                  <c:v>3022.5088810975799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.412187046707997</c:v>
+                  <c:v>4945.7890531206504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21669508284625499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.101752987664727</c:v>
+                  <c:v>10155.0806091667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3998,7 +3135,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4155,25 +3292,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.101752987664727</c:v>
+                  <c:v>202.97159045689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21482037565589701</c:v>
+                  <c:v>491.73296457790201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.412187046707997</c:v>
+                  <c:v>810.84718665160995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02640971670123</c:v>
+                  <c:v>994.24572964274103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2008729076258096</c:v>
+                  <c:v>1483.41097240506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9778670109350198</c:v>
+                  <c:v>2025.8152351174199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9134863991497504</c:v>
+                  <c:v>3045.8553406742799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,25 +3322,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>50.576336548970701</c:v>
+                  <c:v>5.2305786003056003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.182100730616597</c:v>
+                  <c:v>4.0688674597921501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.169650342858297</c:v>
+                  <c:v>3.4816976949280898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.631689912697503</c:v>
+                  <c:v>3.2208359826158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.380297829199701</c:v>
+                  <c:v>2.8043001628397302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.054229025554701</c:v>
+                  <c:v>2.5058950990934199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.9936419201967</c:v>
+                  <c:v>2.2293985477843701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4404,7 +3541,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4569,25 +3706,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>50.576336548970701</c:v>
+                  <c:v>5.2305786003056003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.182100730616597</c:v>
+                  <c:v>4.0688674597921501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.169650342858297</c:v>
+                  <c:v>3.4816976949280898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.631689912697503</c:v>
+                  <c:v>3.2208359826158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.380297829199701</c:v>
+                  <c:v>2.8043001628397302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.054229025554701</c:v>
+                  <c:v>2.5058950990934199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.9936419201967</c:v>
+                  <c:v>2.2293985477843701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4599,25 +3736,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.101752987664727</c:v>
+                  <c:v>202.97159045689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21482037565589701</c:v>
+                  <c:v>491.73296457790201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.412187046707997</c:v>
+                  <c:v>810.84718665160995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02640971670123</c:v>
+                  <c:v>994.24572964274103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2008729076258096</c:v>
+                  <c:v>1483.41097240506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9778670109350198</c:v>
+                  <c:v>2025.8152351174199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9134863991497504</c:v>
+                  <c:v>3045.8553406742799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4818,7 +3955,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4853,7 +3990,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-419"/>
-              <a:t>HEXANE</a:t>
+              <a:t>H2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4970,60 +4107,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>HEXANE!$A$3:$A$9</c:f>
+              <c:f>'H2'!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.103536704986982</c:v>
+                  <c:v>199.87196386572501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21482037565589701</c:v>
+                  <c:v>495.53120776979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40508594014569699</c:v>
+                  <c:v>792.34432466479302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.01752987664727</c:v>
+                  <c:v>998.07821900458703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1472269232604502</c:v>
+                  <c:v>1477.7148689707501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9778670109350198</c:v>
+                  <c:v>2033.6240846866699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>2976.3514416313101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>HEXANE!$B$3:$B$9</c:f>
+              <c:f>'H2'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>52.132105222319197</c:v>
+                  <c:v>2.0769753765580701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.505814631771599</c:v>
+                  <c:v>1.3831422575910799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.147346385956801</c:v>
+                  <c:v>1.1093808898233799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0060524334198</c:v>
+                  <c:v>1.0043271362738699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.551169959105399</c:v>
+                  <c:v>0.83031186868748097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.9515019344802</c:v>
+                  <c:v>0.71677226064285704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.152639075520501</c:v>
+                  <c:v>0.59514987993276902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5169,6 +4306,818 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="480100544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>H2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.4136496062992126"/>
+                  <c:y val="-0.49059310294546515"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'H2'!$A$21:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0769753765580701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3831422575910799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1093808898233799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0043271362738699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83031186868748097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71677226064285704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59514987993276902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'H2'!$B$21:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>199.87196386572501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>495.53120776979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>792.34432466479302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998.07821900458703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1477.7148689707501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2033.6240846866699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2976.3514416313101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89D7-4028-9007-C0824FC35502}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="652964904"/>
+        <c:axId val="652966544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="652964904"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652966544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="652966544"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652964904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>LPG</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13721259842519684"/>
+                  <c:y val="0.15789297171186936"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LPG!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>197.57834731787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>497.44131713774601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>798.46454977390897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1005.78757362058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1455.14833987319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1964.41428090663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2964.9226427456501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LPG!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5893603059496999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08149289868563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86369722126322801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77854124430590899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66915510771054998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57766302570564698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.467369877812643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3BC-4BD2-90C1-48D975BFE431}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366270552"/>
+        <c:axId val="690053448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366270552"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690053448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="690053448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366270552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11978,83 +11927,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FBC46B-965F-42E1-8F68-5F99BD44BA05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC7C7E7-AFDA-4577-A975-FDD556AC4520}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>585787</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -12090,16 +11962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>661987</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>661987</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12127,7 +11999,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12167,16 +12039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12204,7 +12076,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12244,16 +12116,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12281,7 +12153,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12321,16 +12193,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12338,6 +12210,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DAF8CD-9B3C-4233-A98A-ACDA505431F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>709612</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>709612</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D806DB3B-35AE-4B41-91F9-D52DC7FD5060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE30BC2-0009-4585-AF82-B2E47F5DA5ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12657,8 +12606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232858AB-EFC4-400C-8167-ED5D9C610C58}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12667,8 +12616,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
+      <c r="A1" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -12679,340 +12628,323 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.103536704986982</v>
+        <v>202.97159045689</v>
       </c>
       <c r="B3" s="2">
-        <v>2.3006052433419799</v>
+        <v>2.8708212518418099</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.21669508284625499</v>
+        <v>493.628432971103</v>
       </c>
       <c r="B4" s="2">
-        <v>1.52830673265877</v>
+        <v>2.1204860819913498</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.412187046707997</v>
+        <v>789.30182645435798</v>
       </c>
       <c r="B5" s="2">
-        <v>0.98496557649837702</v>
+        <v>1.7229493058249301</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1.03536704986982</v>
+        <v>1013.55647682452</v>
       </c>
       <c r="B6" s="2">
-        <v>0.53735730587751895</v>
+        <v>1.6285583701924</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1.6267497726757201</v>
+        <v>1483.41097240506</v>
       </c>
       <c r="B7" s="2">
-        <v>0.39690284370655698</v>
+        <v>1.42410319455136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2.5338073109426098</v>
+        <v>2002.5681360431199</v>
       </c>
       <c r="B8" s="2">
-        <v>0.293160371356816</v>
+        <v>1.26164078362926</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>4.0862106814454302</v>
+        <v>3045.8553406742799</v>
       </c>
       <c r="B9" s="2">
-        <v>0.206913808111479</v>
+        <v>1.0937280830093301</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>6.1472269232604502</v>
+        <v>4983.9913111605501</v>
       </c>
       <c r="B10" s="2">
-        <v>0.16237767391887201</v>
+        <v>0.888662882416279</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8.0474887337508907</v>
+        <v>10116.0864324958</v>
       </c>
       <c r="B11" s="2">
-        <v>0.129372540128079</v>
+        <v>0.65934744485899699</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10.0872685928713</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.11635618505358999</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2.3006052433419799</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0.103536704986982</v>
+        <v>2.8708212518418099</v>
+      </c>
+      <c r="B21" s="2">
+        <v>202.97159045689</v>
       </c>
       <c r="C21" s="2">
-        <f>0.3934*((A21)^(-1.504))</f>
-        <v>0.11236313021047439</v>
+        <f>3616.1*((A21)^(-2.675))</f>
+        <v>215.3148452279323</v>
       </c>
       <c r="D21" s="2">
         <f>ABS(C21-B21)</f>
-        <v>8.8264252234923901E-3</v>
+        <v>12.343254771042297</v>
       </c>
       <c r="E21" s="2">
         <f>D21/B21</f>
-        <v>8.5249238176955358E-2</v>
+        <v>6.0812721343206567E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>1.52830673265877</v>
-      </c>
-      <c r="B22" s="12">
-        <v>0.21669508284625499</v>
+        <v>2.1204860819913498</v>
+      </c>
+      <c r="B22" s="2">
+        <v>493.628432971103</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:C30" si="0">0.3934*((A22)^(-1.504))</f>
-        <v>0.20786516961445145</v>
+        <f t="shared" ref="C22:C29" si="0">3616.1*((A22)^(-2.675))</f>
+        <v>484.20098291658309</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ref="D22:D30" si="1">ABS(C22-B22)</f>
-        <v>8.8299132318035434E-3</v>
+        <v>9.4274500545199089</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ref="E22:E30" si="2">D22/B22</f>
-        <v>4.0748101506614988E-2</v>
+        <v>1.9098271948755009E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>0.98496557649837702</v>
-      </c>
-      <c r="B23" s="12">
-        <v>0.412187046707997</v>
+        <v>1.7229493058249301</v>
+      </c>
+      <c r="B23" s="2">
+        <v>789.30182645435798</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>0.40246590271018451</v>
+        <v>843.74555133164404</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>9.7211439978124869E-3</v>
+        <v>54.443724877286058</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="2"/>
-        <v>2.358430250405024E-2</v>
+        <v>6.8977066886889191E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>0.53735730587751895</v>
-      </c>
-      <c r="B24" s="12">
-        <v>1.03536704986982</v>
+        <v>1.6285583701924</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1013.55647682452</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>1.0011947557464467</v>
+        <v>980.99439703902783</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>3.4172294123373304E-2</v>
+        <v>32.562079785492188</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>
-        <v>3.3005004483839716E-2</v>
+        <v>3.2126556861941651E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>0.39690284370655698</v>
-      </c>
-      <c r="B25" s="12">
-        <v>1.6267497726757201</v>
+        <v>1.42410319455136</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1483.41097240506</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>1.579113342090062</v>
+        <v>1404.4847396348578</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>4.7636430585658029E-2</v>
+        <v>78.926232770202205</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="2"/>
-        <v>2.9283194862418451E-2</v>
+        <v>5.3205911401773442E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>0.293160371356816</v>
-      </c>
-      <c r="B26" s="12">
-        <v>2.5338073109426098</v>
+        <v>1.26164078362926</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2002.5681360431199</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>2.4906232607138734</v>
+        <v>1941.9470423365428</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>4.3184050228736393E-2</v>
+        <v>60.621093706577085</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="2"/>
-        <v>1.7043146904754707E-2</v>
+        <v>3.0271675962226421E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0.206913808111479</v>
-      </c>
-      <c r="B27" s="12">
-        <v>4.0862106814454302</v>
+        <v>1.0937280830093301</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3045.8553406742799</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>4.2061716043986825</v>
+        <v>2845.49538088393</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>0.11996092295325234</v>
+        <v>200.35995979034988</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="2"/>
-        <v>2.9357498255772295E-2</v>
+        <v>6.5781180450281973E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0.16237767391887201</v>
-      </c>
-      <c r="B28" s="12">
-        <v>6.1472269232604502</v>
+        <v>0.888662882416279</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4983.9913111605501</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>6.0562358073373845</v>
+        <v>4958.7115661542693</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>9.0991115923065635E-2</v>
+        <v>25.279745006280791</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="2"/>
-        <v>1.4801977714335706E-2</v>
+        <v>5.0721888197662731E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>0.129372540128079</v>
-      </c>
-      <c r="B29" s="12">
-        <v>8.0474887337508907</v>
+        <v>0.65934744485899699</v>
+      </c>
+      <c r="B29" s="2">
+        <v>10116.0864324958</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>8.5236150837750557</v>
+        <v>11018.173476261234</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>0.47612635002416503</v>
+        <v>902.08704376543392</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="2"/>
-        <v>5.9164587336085046E-2</v>
+        <v>8.9173520786424779E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>0.11635618505358999</v>
-      </c>
-      <c r="B30" s="12">
-        <v>10.0872685928713</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9973981217924752</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="1"/>
-        <v>8.9870471078825176E-2</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="2"/>
-        <v>8.9092969272511376E-3</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="C31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="15"/>
       <c r="E31" s="4">
         <f>AVERAGE(E21:E30)</f>
-        <v>3.4114634867207769E-2</v>
+        <v>4.716878827347392E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>8</v>
+      <c r="A35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -13043,13 +12975,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13058,207 +12990,336 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D929E0-C068-4B1B-BB8E-F6B06E71788E}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837A142F-A264-4D01-A26F-E9B61CBE035D}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
+      <c r="A1" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.102640971670123</v>
+        <v>200.64240436389201</v>
       </c>
       <c r="B3" s="2">
-        <v>4.1535653960688297</v>
+        <v>3.0628594206904798</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.21482037565589701</v>
+        <v>493.628432971103</v>
       </c>
       <c r="B4" s="2">
-        <v>3.2105463740271101</v>
+        <v>2.2623075243417898</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.40862106814454302</v>
+        <v>795.39855070234205</v>
       </c>
       <c r="B5" s="2">
-        <v>2.5970103724929099</v>
+        <v>1.9027463399615101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1.02640971670123</v>
+        <v>1021.38538858153</v>
       </c>
       <c r="B6" s="2">
-        <v>1.7782794100389201</v>
+        <v>1.7601093645164001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1.6409461890372301</v>
+        <v>1466.38819498409</v>
       </c>
       <c r="B7" s="2">
-        <v>1.48269776045635</v>
+        <v>1.5128224400169901</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2.5118864315095801</v>
+        <v>2010.28737571288</v>
       </c>
       <c r="B8" s="2">
-        <v>1.2551169959105399</v>
+        <v>1.3635579819828101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>4.0508594014569699</v>
+        <v>3022.5088810975799</v>
       </c>
       <c r="B9" s="2">
-        <v>1.03076080197786</v>
+        <v>1.16186132267541</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>6.1472269232604502</v>
+        <v>4945.7890531206504</v>
       </c>
       <c r="B10" s="2">
-        <v>0.94120496726806802</v>
+        <v>0.93590796595576597</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>7.9778670109350198</v>
+        <v>10155.0806091667</v>
       </c>
       <c r="B11" s="2">
-        <v>0.83378222347178998</v>
+        <v>0.70344310200288696</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9.9134863991497504</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.77296155661007604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>4.1535653960688297</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.102640971670123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>3.2105463740271101</v>
+        <v>3.0628594206904798</v>
       </c>
       <c r="B20" s="2">
-        <v>0.21482037565589701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200.64240436389201</v>
+      </c>
+      <c r="C20" s="2">
+        <f>(4301.2)*((A20)^(-2.651))</f>
+        <v>221.24159995288281</v>
+      </c>
+      <c r="D20" s="2">
+        <f>ABS(C20-B20)</f>
+        <v>20.599195588990796</v>
+      </c>
+      <c r="E20" s="2">
+        <f>D20/B20</f>
+        <v>0.10266621183242691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2.5970103724929099</v>
+        <v>2.2623075243417898</v>
       </c>
       <c r="B21" s="2">
-        <v>0.40862106814454302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>493.628432971103</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:C28" si="0">(4301.2)*((A21)^(-2.651))</f>
+        <v>493.93891066480313</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:D28" si="1">ABS(C21-B21)</f>
+        <v>0.31047769370013611</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E29" si="2">D21/B21</f>
+        <v>6.2897044206185638E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>1.7782794100389201</v>
+        <v>1.9027463399615101</v>
       </c>
       <c r="B22" s="2">
-        <v>1.02640971670123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>795.39855070234205</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>781.53941215569057</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>13.859138546651479</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.742414357483273E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>1.48269776045635</v>
+        <v>1.7601093645164001</v>
       </c>
       <c r="B23" s="2">
-        <v>1.6409461890372301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1021.38538858153</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>960.8686312170845</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>60.516757364445539</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9249679935689532E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>1.2551169959105399</v>
+        <v>1.5128224400169901</v>
       </c>
       <c r="B24" s="2">
-        <v>2.5118864315095801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1466.38819498409</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>1435.3960964120442</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>30.992098572045734</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1134989137294571E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1.03076080197786</v>
+        <v>1.3635579819828101</v>
       </c>
       <c r="B25" s="2">
-        <v>4.0508594014569699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2010.28737571288</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>1890.4704664453177</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>119.81690926756232</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9601881161430136E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>0.94120496726806802</v>
+        <v>1.16186132267541</v>
       </c>
       <c r="B26" s="2">
-        <v>6.1472269232604502</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3022.5088810975799</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>2889.7854625040927</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>132.72341859348717</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>4.3911671996573455E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0.83378222347178998</v>
+        <v>0.93590796595576597</v>
       </c>
       <c r="B27" s="2">
-        <v>7.9778670109350198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4945.7890531206504</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>5126.8495492984584</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>181.06049617780809</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6609021176017227E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0.77296155661007604</v>
+        <v>0.70344310200288696</v>
       </c>
       <c r="B28" s="2">
-        <v>9.9134863991497504</v>
+        <v>10155.0806091667</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>10929.130800648851</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>774.05019148215069</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6222949011693492E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="4">
+        <f>AVERAGE(E20:E29)</f>
+        <v>4.638327980755777E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13266,207 +13327,330 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837A142F-A264-4D01-A26F-E9B61CBE035D}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A322A761-882B-44F1-A786-A95B3813B6B6}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
+      <c r="A1" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>9.9134863991497504</v>
+        <v>202.97159045689</v>
       </c>
       <c r="B3" s="2">
-        <v>39.093563826527401</v>
+        <v>5.2305786003056003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>7.9088476107129697</v>
+        <v>491.73296457790201</v>
       </c>
       <c r="B4" s="2">
-        <v>39.690284370655696</v>
+        <v>4.0688674597921501</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>6.1472269232604502</v>
+        <v>810.84718665160995</v>
       </c>
       <c r="B5" s="2">
-        <v>40.296113202004001</v>
+        <v>3.4816976949280898</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4.0862106814454302</v>
+        <v>994.24572964274103</v>
       </c>
       <c r="B6" s="2">
-        <v>41.5356539606883</v>
+        <v>3.2208359826158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2.5118864315095801</v>
+        <v>1483.41097240506</v>
       </c>
       <c r="B7" s="2">
-        <v>42.169650342858297</v>
+        <v>2.8043001628397302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1.65526649552671</v>
+        <v>2025.8152351174199</v>
       </c>
       <c r="B8" s="2">
-        <v>42.169650342858297</v>
+        <v>2.5058950990934199</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1.01752987664727</v>
+        <v>3045.8553406742799</v>
       </c>
       <c r="B9" s="2">
-        <v>44.130296168378003</v>
+        <v>2.2293985477843701</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.412187046707997</v>
+        <v>4983.9913111605501</v>
       </c>
       <c r="B10" s="2">
-        <v>45.4877794700378</v>
+        <v>1.8429478599226301</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0.21669508284625499</v>
+        <v>10272.9673171293</v>
       </c>
       <c r="B11" s="2">
-        <v>49.066996389388301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0.101752987664727</v>
-      </c>
-      <c r="B12" s="2">
-        <v>49.066996389388301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.45253254136236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>39.093563826527401</v>
+        <v>5.2305786003056003</v>
       </c>
       <c r="B20" s="2">
-        <v>9.9134863991497504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202.97159045689</v>
+      </c>
+      <c r="C20" s="2">
+        <f>(36974)*((A20)^(-3.109))</f>
+        <v>215.73733920121171</v>
+      </c>
+      <c r="D20" s="2">
+        <f>ABS(C20-B20)</f>
+        <v>12.765748744321712</v>
+      </c>
+      <c r="E20" s="2">
+        <f>D20/B20</f>
+        <v>6.2894263751818433E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>39.690284370655696</v>
+        <v>4.0688674597921501</v>
       </c>
       <c r="B21" s="2">
-        <v>7.9088476107129697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491.73296457790201</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:C28" si="0">(36974)*((A21)^(-3.109))</f>
+        <v>471.0241676927256</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:D28" si="1">ABS(C21-B21)</f>
+        <v>20.708796885176412</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E28" si="2">D21/B21</f>
+        <v>4.21139081105791E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>40.296113202004001</v>
+        <v>3.4816976949280898</v>
       </c>
       <c r="B22" s="2">
-        <v>6.1472269232604502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>810.84718665160995</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>764.65939954511691</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>46.187787106493033</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>5.6962381897414364E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>41.5356539606883</v>
+        <v>3.2208359826158</v>
       </c>
       <c r="B23" s="2">
-        <v>4.0862106814454302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>994.24572964274103</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>974.14146583952584</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>20.10426380321519</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0220618710063948E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>42.169650342858297</v>
+        <v>2.8043001628397302</v>
       </c>
       <c r="B24" s="2">
-        <v>2.5118864315095801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1483.41097240506</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>1498.3389698094593</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>14.927997404399321</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0063291752653346E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>42.169650342858297</v>
+        <v>2.5058950990934199</v>
       </c>
       <c r="B25" s="2">
-        <v>1.65526649552671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2025.8152351174199</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>2125.7922624957364</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>99.977027378316507</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9351503357867511E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44.130296168378003</v>
+        <v>2.2293985477843701</v>
       </c>
       <c r="B26" s="2">
-        <v>1.01752987664727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3045.8553406742799</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>3057.6011593556923</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>11.745818681412402</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8563284751442456E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45.4877794700378</v>
+        <v>1.8429478599226301</v>
       </c>
       <c r="B27" s="2">
-        <v>0.412187046707997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4983.9913111605501</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>5526.0698377791223</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>542.07852661857214</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10876393893478642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>49.066996389388301</v>
+        <v>1.45253254136236</v>
       </c>
       <c r="B28" s="2">
-        <v>0.21669508284625499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>49.066996389388301</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.101752987664727</v>
+        <v>10272.9673171293</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>11583.694752826117</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>1310.7274356968173</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12758995480412857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="4">
+        <f>AVERAGE(E20:E29)</f>
+        <v>5.3535132199383995E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13474,159 +13658,330 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A322A761-882B-44F1-A786-A95B3813B6B6}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7FCDF8-00E6-44AE-8C88-3AF2DD83FBD0}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
+      <c r="A1" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.101752987664727</v>
+        <v>199.87196386572501</v>
       </c>
       <c r="B3" s="2">
-        <v>50.576336548970701</v>
+        <v>2.0769753765580701</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.21482037565589701</v>
+        <v>495.53120776979</v>
       </c>
       <c r="B4" s="2">
-        <v>46.182100730616597</v>
+        <v>1.3831422575910799</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.412187046707997</v>
+        <v>792.34432466479302</v>
       </c>
       <c r="B5" s="2">
-        <v>42.169650342858297</v>
+        <v>1.1093808898233799</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1.02640971670123</v>
+        <v>998.07821900458703</v>
       </c>
       <c r="B6" s="2">
-        <v>34.631689912697503</v>
+        <v>1.0043271362738699</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6.2008729076258096</v>
+        <v>1477.7148689707501</v>
       </c>
       <c r="B7" s="2">
-        <v>20.380297829199701</v>
+        <v>0.83031186868748097</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7.9778670109350198</v>
+        <v>2033.6240846866699</v>
       </c>
       <c r="B8" s="2">
-        <v>18.054229025554701</v>
+        <v>0.71677226064285704</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>9.9134863991497504</v>
+        <v>2976.3514416313101</v>
       </c>
       <c r="B9" s="2">
-        <v>15.9936419201967</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+        <v>0.59514987993276902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4907.8796151175802</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.46313409452053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10038.546701761699</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.334837756073046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>50.576336548970701</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.101752987664727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>46.182100730616597</v>
+        <v>2.0769753765580701</v>
       </c>
       <c r="B21" s="2">
-        <v>0.21482037565589701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199.87196386572501</v>
+      </c>
+      <c r="C21" s="2">
+        <f>(987.99)*((A21)^(-2.162))</f>
+        <v>203.45387922309342</v>
+      </c>
+      <c r="D21" s="2">
+        <f>ABS(C21-B21)</f>
+        <v>3.5819153573684162</v>
+      </c>
+      <c r="E21" s="2">
+        <f>D21/B21</f>
+        <v>1.792104949634039E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>42.169650342858297</v>
+        <v>1.3831422575910799</v>
       </c>
       <c r="B22" s="2">
-        <v>0.412187046707997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>495.53120776979</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:C29" si="0">(987.99)*((A22)^(-2.162))</f>
+        <v>490.00263909560351</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D29" si="1">ABS(C22-B22)</f>
+        <v>5.5285686741864879</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:E29" si="2">D22/B22</f>
+        <v>1.1156852661346219E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>34.631689912697503</v>
+        <v>1.1093808898233799</v>
       </c>
       <c r="B23" s="2">
-        <v>1.02640971670123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>792.34432466479302</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>789.3836333404646</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9606913243284225</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7366221125909676E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>20.380297829199701</v>
+        <v>1.0043271362738699</v>
       </c>
       <c r="B24" s="2">
-        <v>6.2008729076258096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>998.07821900458703</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>978.80994329483451</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>19.268275709752515</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9305376415256651E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>18.054229025554701</v>
+        <v>0.83031186868748097</v>
       </c>
       <c r="B25" s="2">
-        <v>7.9778670109350198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1477.7148689707501</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>1476.9064095681574</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.808459402592689</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>5.4710108124972226E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>15.9936419201967</v>
+        <v>0.71677226064285704</v>
       </c>
       <c r="B26" s="2">
-        <v>9.9134863991497504</v>
+        <v>2033.6240846866699</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>2029.6372126519789</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9868720346910322</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9604764050113561E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.59514987993276902</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2976.3514416313101</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>3033.9636939861475</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>57.612252354837437</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9356669897577925E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.46313409452053</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4907.8796151175802</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>5217.8855331237764</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>310.00591800619623</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>6.3164939305213441E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.334837756073046</v>
+      </c>
+      <c r="B29" s="2">
+        <v>10038.546701761699</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>10521.084937832573</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>482.53823607087361</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8068535257816881E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="4">
+        <f>AVERAGE(E21:E30)</f>
+        <v>2.0579735848044838E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13634,159 +13989,330 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7FCDF8-00E6-44AE-8C88-3AF2DD83FBD0}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526543DA-870C-4FD9-86D4-30D11917DC17}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
+      <c r="A1" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.103536704986982</v>
+        <v>197.57834731787</v>
       </c>
       <c r="B3" s="2">
-        <v>52.132105222319197</v>
+        <v>1.5893603059496999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.21482037565589701</v>
+        <v>497.44131713774601</v>
       </c>
       <c r="B4" s="2">
-        <v>38.505814631771599</v>
+        <v>1.08149289868563</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.40508594014569699</v>
+        <v>798.46454977390897</v>
       </c>
       <c r="B5" s="2">
-        <v>31.147346385956801</v>
+        <v>0.86369722126322801</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1.01752987664727</v>
+        <v>1005.78757362058</v>
       </c>
       <c r="B6" s="2">
-        <v>23.0060524334198</v>
+        <v>0.77854124430590899</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6.1472269232604502</v>
+        <v>1455.14833987319</v>
       </c>
       <c r="B7" s="2">
-        <v>12.551169959105399</v>
+        <v>0.66915510771054998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7.9778670109350198</v>
+        <v>1964.41428090663</v>
       </c>
       <c r="B8" s="2">
-        <v>10.9515019344802</v>
+        <v>0.57766302570564698</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>2964.9226427456501</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.467369877812643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4907.8796151175802</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.36369686359629799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9961.6013125136906</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.256226398051212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>10.152639075520501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1.5893603059496999</v>
+      </c>
+      <c r="B19" s="2">
+        <v>197.57834731787</v>
+      </c>
+      <c r="C19" s="2">
+        <f>(574.25)*((A19)^(-2.222))</f>
+        <v>205.10909324432981</v>
+      </c>
+      <c r="D19" s="2">
+        <f>ABS(C19-B19)</f>
+        <v>7.5307459264598151</v>
+      </c>
+      <c r="E19" s="2">
+        <f>D19/B19</f>
+        <v>3.8115238985900232E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1.08149289868563</v>
+      </c>
+      <c r="B20" s="2">
+        <v>497.44131713774601</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:C27" si="0">(574.25)*((A20)^(-2.222))</f>
+        <v>482.50342938370221</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D27" si="1">ABS(C20-B20)</f>
+        <v>14.9378877540438</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20:E27" si="2">D20/B20</f>
+        <v>3.0029447171770342E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>52.132105222319197</v>
+        <v>0.86369722126322801</v>
       </c>
       <c r="B21" s="2">
-        <v>0.103536704986982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>798.46454977390897</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>795.25370511492736</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>3.210844658981614</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0212739061374582E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>38.505814631771599</v>
+        <v>0.77854124430590899</v>
       </c>
       <c r="B22" s="2">
-        <v>0.21482037565589701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1005.78757362058</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>1001.5513793597546</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2361942608254139</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2118180537627737E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>31.147346385956801</v>
+        <v>0.66915510771054998</v>
       </c>
       <c r="B23" s="2">
-        <v>0.40508594014569699</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1455.14833987319</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>1402.104748845559</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>53.04359102763101</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6452359923836719E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23.0060524334198</v>
+        <v>0.57766302570564698</v>
       </c>
       <c r="B24" s="2">
-        <v>1.01752987664727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1964.41428090663</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>1943.8381787526414</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>20.576102153988586</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0474420978293928E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>12.551169959105399</v>
+        <v>0.467369877812643</v>
       </c>
       <c r="B25" s="2">
-        <v>6.1472269232604502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2964.9226427456501</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>3112.5396130640693</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>147.61697031841913</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9787798234668022E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>10.9515019344802</v>
+        <v>0.36369686359629799</v>
       </c>
       <c r="B26" s="2">
-        <v>7.9778670109350198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4907.8796151175802</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>5434.2261845079511</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>526.34656939037086</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10724520784272761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>10.152639075520501</v>
+        <v>0.256226398051212</v>
       </c>
       <c r="B27" s="2">
-        <v>10</v>
+        <v>9961.6013125136906</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>11834.196098928902</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>1872.5947864152113</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18798130216904699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="4">
+        <f>AVERAGE(E19:E28)</f>
+        <v>5.2035429696238235E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13794,161 +14320,364 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526543DA-870C-4FD9-86D4-30D11917DC17}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C3AC13-92EB-4575-A9CE-3691A6EFC079}">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>199.87196386572501</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.7177387821105901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>505.15566738639001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.11464945528187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>804.63204871868004</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.91353622990473204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1477.7148689707501</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.695649154812918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1964.41428090663</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.61896372658948495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2976.3514416313101</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.49862651200770702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5003.2029538260003</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.39819373740858899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10038.546701761699</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.27692374489037502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1.7177387821105901</v>
+      </c>
+      <c r="B21" s="2">
+        <v>199.87196386572501</v>
+      </c>
+      <c r="C21" s="2">
+        <f>658.71*((A21)^(-2.168))</f>
+        <v>203.84835832172004</v>
+      </c>
+      <c r="D21" s="2">
+        <f>ABS(C21-B21)</f>
+        <v>3.9763944559950346</v>
+      </c>
+      <c r="E21" s="2">
+        <f>D21/B21</f>
+        <v>1.9894708487811708E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1.11464945528187</v>
+      </c>
+      <c r="B22" s="2">
+        <v>505.15566738639001</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:C28" si="0">658.71*((A22)^(-2.168))</f>
+        <v>520.59309635313639</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D30" si="1">ABS(C22-B22)</f>
+        <v>15.437428966746381</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:E30" si="2">D22/B22</f>
+        <v>3.0559746160263111E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.91353622990473204</v>
+      </c>
+      <c r="B23" s="2">
+        <v>804.63204871868004</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>801.38419851756612</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2478502011139199</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0364415092412646E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.695649154812918</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1477.7148689707501</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>1446.7455958970374</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>30.969273073712657</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0957543112009969E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.61896372658948495</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1964.41428090663</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>1863.6489373233715</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>100.76534358325853</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1295362980538203E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.49862651200770702</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2976.3514416313101</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>2977.949046365407</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5976047340968762</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3676615998722393E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.39819373740858899</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5003.2029538260003</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>4849.4171316936672</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>153.78582213233312</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>3.073747428429453E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.27692374489037502</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10038.546701761699</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>10657.549332502902</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>619.00263074120267</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1662574188410334E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="4">
+        <f>AVERAGE(E21:E30)</f>
+        <v>2.7460077110319541E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.10444025524245699</v>
-      </c>
-      <c r="B3" s="2">
-        <v>51.348329074375599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.21482037565589701</v>
-      </c>
-      <c r="B4" s="2">
-        <v>42.813323987194003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.40862106814454302</v>
-      </c>
-      <c r="B5" s="2">
-        <v>36.241864000126803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1.03536704986982</v>
-      </c>
-      <c r="B6" s="2">
-        <v>29.7635144163132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6.1472269232604502</v>
-      </c>
-      <c r="B7" s="2">
-        <v>15.753186734235101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7.9778670109350198</v>
-      </c>
-      <c r="B8" s="2">
-        <v>13.7454162087133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>9.9134863991497504</v>
-      </c>
-      <c r="B9" s="2">
-        <v>13.1347270620369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>51.348329074375599</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.10444025524245699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>42.813323987194003</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.21482037565589701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>36.241864000126803</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.40862106814454302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>29.7635144163132</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.03536704986982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>15.753186734235101</v>
-      </c>
-      <c r="B23" s="2">
-        <v>6.1472269232604502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>13.7454162087133</v>
-      </c>
-      <c r="B24" s="2">
-        <v>7.9778670109350198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>13.1347270620369</v>
-      </c>
-      <c r="B25" s="2">
-        <v>9.9134863991497504</v>
-      </c>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBF1F12-D004-495C-AB0C-6963F0AB9A1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>